--- a/Reflection-Automation/DataFiles/MethodNames.xlsx
+++ b/Reflection-Automation/DataFiles/MethodNames.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14385" windowHeight="3765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="D1:V18"/>
 </workbook>
 </file>
 
@@ -344,7 +345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
